--- a/MainTop/03.12.2025 Ozon Таня/поставка по городам.xlsx
+++ b/MainTop/03.12.2025 Ozon Таня/поставка по городам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\03.12.2025 Ozon Таня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2905A244-DA40-466C-877D-CACBCF4463F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1706DB5-A82C-4C78-8A6D-92C3D51B8C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="261">
   <si>
     <t>Артикул</t>
   </si>
@@ -803,9 +803,6 @@
   </si>
   <si>
     <t>в4</t>
-  </si>
-  <si>
-    <t>Итого:</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8884,15 +8881,13 @@
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>261</v>
-      </c>
+      <c r="A121" s="9"/>
       <c r="B121" s="9">
-        <f t="shared" ref="B121:R121" si="8">SUM(B2:B120)</f>
+        <f>SUM(B2:B120)</f>
         <v>59</v>
       </c>
       <c r="C121" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C121:R121" si="8">SUM(C2:C120)</f>
         <v>63</v>
       </c>
       <c r="D121" s="9">
